--- a/data/trans_dic/P04D$colectiva-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,12</t>
+          <t>1,24; 5,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,44 +696,44 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,87</t>
+          <t>0,85; 10,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,96</t>
+          <t>0,33; 2,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,78</t>
+          <t>0,83; 4,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,2</t>
+          <t>0,85; 3,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,5</t>
+          <t>1,19; 6,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,83</t>
+          <t>1,65; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,68</t>
+          <t>0,2; 1,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,23</t>
+          <t>0,87; 4,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,51</t>
+          <t>1,58; 4,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,7</t>
+          <t>0,41; 2,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,9</t>
+          <t>0,41; 1,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,1</t>
+          <t>1,92; 4,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,68</t>
+          <t>0,43; 1,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,21</t>
+          <t>0,87; 3,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,59</t>
+          <t>0,57; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,79</t>
+          <t>1,14; 5,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,68</t>
+          <t>5,9; 12,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,28</t>
+          <t>0,31; 3,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,08</t>
+          <t>0,83; 3,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 15,06</t>
+          <t>9,09; 14,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,77</t>
+          <t>0,68; 2,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,92</t>
+          <t>1,3; 3,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,8</t>
+          <t>8,42; 12,9</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,29</t>
+          <t>3,61; 8,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,17</t>
+          <t>2,73; 7,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,49</t>
+          <t>7,67; 15,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,5</t>
+          <t>2,13; 6,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,45</t>
+          <t>2,9; 8,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 10,36</t>
+          <t>4,43; 10,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,35</t>
+          <t>3,27; 6,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,59</t>
+          <t>3,34; 6,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,43</t>
+          <t>6,65; 11,78</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 16,38</t>
+          <t>7,45; 16,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,39 +1141,39 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,2; 17,32</t>
+          <t>8,24; 17,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,93; 15,12</t>
+          <t>9,05; 15,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,55</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,32</t>
+          <t>2,59; 8,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,55; 19,06</t>
+          <t>10,28; 19,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,38; 33,98</t>
+          <t>22,97; 33,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,94</t>
+          <t>1,43; 5,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,76; 14,11</t>
+          <t>7,21; 14,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,07; 36,11</t>
+          <t>26,01; 35,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,97</t>
+          <t>2,58; 5,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,38</t>
+          <t>9,69; 15,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,73; 33,2</t>
+          <t>26,15; 33,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,67</t>
+          <t>0,27; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,25</t>
+          <t>2,17; 5,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,97</t>
+          <t>4,13; 8,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,21</t>
+          <t>0,14; 1,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,6</t>
+          <t>1,98; 4,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,75</t>
+          <t>1,93; 6,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,13</t>
+          <t>0,28; 1,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,45</t>
+          <t>2,31; 4,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,58</t>
+          <t>3,21; 6,52</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,39</t>
+          <t>1,28; 3,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,65</t>
+          <t>0,24; 1,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,42</t>
+          <t>0,17; 1,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,7</t>
+          <t>1,62; 3,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,31</t>
+          <t>0,14; 1,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,03</t>
+          <t>0,71; 1,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,17</t>
+          <t>1,65; 3,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,12</t>
+          <t>0,29; 1,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,4</t>
+          <t>0,5; 1,45</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,79</t>
+          <t>2,55; 3,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,42</t>
+          <t>2,27; 3,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,83</t>
+          <t>4,55; 6,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,29</t>
+          <t>2,14; 3,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,06</t>
+          <t>2,0; 3,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,62</t>
+          <t>4,77; 6,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,41</t>
+          <t>2,5; 3,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,07</t>
+          <t>2,27; 3,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,52</t>
+          <t>5,02; 6,51</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, tiene calefacción colectiva en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7438</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10520</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3092</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5533</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10530</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16052</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3619; 16353</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2663; 32792</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>948; 8351</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4300</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2392; 13513</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4908; 18622</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4542</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7144; 38554</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14861</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3124</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11862</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14385</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5113</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29246</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9523</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16975</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8286; 23665</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1018; 9236</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4503; 25647</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8248; 23840</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2168; 13703</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2131; 9734</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19705; 42638</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4433; 18064</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8991; 31917</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4804</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8203</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28178</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4934</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6743</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40738</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9738</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14945</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>68916</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1862; 10924</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3645; 16248</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18578; 38988</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1073; 12604</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2792; 13277</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31616; 52069</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4530; 17744</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8527; 25371</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>55828; 85500</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21540</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17022</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34531</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13660</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19307</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35931</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35200</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36329</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>70462</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13468; 31749</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10103; 26228</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23960; 49912</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8299; 23532</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11215; 31243</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20982; 49920</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24895; 48368</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25328; 51218</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52279; 92563</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24602</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>26962</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>51565</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15840; 34734</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1903</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1225</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18095; 38197</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5490</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2533</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>39117; 66181</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5109</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13264</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>38555</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>75954</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8807</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27810</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>79474</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22071</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>66366</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>155428</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7095; 22255</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>27046; 51232</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>61923; 90480</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3996; 16010</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19700; 38587</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>66861; 91372</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14253; 33151</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>51938; 82812</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>137712; 174298</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4867</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22671</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>36914</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2958</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21559</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38603</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>7825</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>44231</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>75518</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1764; 10679</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>14228; 35282</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>25640; 49685</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>944; 8986</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13690; 32254</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>16279; 56570</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3846; 15845</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31112; 59614</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>47133; 95683</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>16153</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5430</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>5582</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>20778</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>9142</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>36931</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>9817</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>14724</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>9977; 25801</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1906; 12512</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1595; 13254</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>13387; 32153</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1175; 10529</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>5108; 14278</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>26417; 51950</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>4708; 18197</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>8150; 23761</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>107529</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>95006</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>203541</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>95576</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>87953</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>214947</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>203105</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>182959</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>418488</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>87160; 129163</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>76959; 115788</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>157265; 238211</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>76214; 118292</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>70912; 107083</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>176683; 247518</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>174013; 232053</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>157173; 211025</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>359613; 465817</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>